--- a/data/6_2.xlsx
+++ b/data/6_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\strabag\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A77237-C54C-47AC-A204-BE6C06E958EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B8669D-61D9-435B-B7E6-0D9306FE41F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9BE4582C-7ABF-408C-8206-B7C4C94CD4F4}"/>
+    <workbookView xWindow="660" yWindow="525" windowWidth="14715" windowHeight="14985" xr2:uid="{9BE4582C-7ABF-408C-8206-B7C4C94CD4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -122,15 +122,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _H_U_F_-;\-* #,##0.00\ _H_U_F_-;_-* &quot;-&quot;??\ _H_U_F_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_-&quot;L. &quot;* #,##0_-;&quot;-L. &quot;* #,##0_-;_-&quot;L. &quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-&quot;L. &quot;* #,##0.00_-;&quot;-L. &quot;* #,##0.00_-;_-&quot;L. &quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0\ _H_U_F_-;\-* #,##0\ _H_U_F_-;_-* &quot;-&quot;??\ _H_U_F_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _H_U_F_-;\-* #,##0.00\ _H_U_F_-;_-* &quot;-&quot;??\ _H_U_F_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;L. &quot;* #,##0_-;&quot;-L. &quot;* #,##0_-;_-&quot;L. &quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;L. &quot;* #,##0.00_-;&quot;-L. &quot;* #,##0.00_-;_-&quot;L. &quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0\ _H_U_F_-;\-* #,##0\ _H_U_F_-;_-* &quot;-&quot;??\ _H_U_F_-;_-@_-"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -690,10 +690,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -707,7 +707,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
@@ -794,7 +794,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFont="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -802,10 +802,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="34" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="34" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -884,16 +884,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,11 +1369,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B919A224-6E9B-40E5-910C-3EB167598442}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
       <c r="A1" s="18"/>
@@ -1409,7 +1412,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="105">
+    <row r="3" spans="1:8" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
